--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1759763.229735441</v>
+        <v>1759008.436752318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843037</v>
+        <v>2896994.290843034</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,58 +1215,58 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="D10" t="n">
-        <v>10.00967878293136</v>
-      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
         <v>275.4734992560195</v>
       </c>
       <c r="D11" t="n">
-        <v>266.4548033005474</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.58707407688222</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F11" t="n">
         <v>307.3687569584301</v>
@@ -1385,7 +1385,7 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252743</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U11" t="n">
-        <v>149.6530179828526</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>256.2686590164737</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>108.6107411591927</v>
       </c>
       <c r="Y11" t="n">
         <v>286.9655150454191</v>
@@ -1467,7 +1467,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I12" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646532</v>
       </c>
       <c r="S12" t="n">
-        <v>145.9864318313366</v>
+        <v>145.9864318313356</v>
       </c>
       <c r="T12" t="n">
         <v>185.6513884738609</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.07889317303481</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C13" t="n">
-        <v>65.2788880184353</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90025241601369</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E13" t="n">
-        <v>47.84800227179313</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F13" t="n">
-        <v>48.31492659997944</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G13" t="n">
-        <v>64.35108710701114</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H13" t="n">
-        <v>53.01713980218873</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65991636537676</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S13" t="n">
         <v>104.7746029199932</v>
@@ -1607,25 +1607,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D14" t="n">
-        <v>266.4548033005474</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>288.196940870453</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.3687569584301</v>
+        <v>197.6389622003393</v>
       </c>
       <c r="G14" t="n">
         <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
-        <v>81.07972332678503</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407876</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>149.6530179828525</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W14" t="n">
         <v>256.2686590164737</v>
@@ -1673,7 +1673,7 @@
         <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H15" t="n">
-        <v>96.19049711964605</v>
+        <v>96.19049711964678</v>
       </c>
       <c r="I15" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.52047263646621</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S15" t="n">
         <v>145.9864318313356</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.0788931730348</v>
+        <v>79.07889317303479</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843528</v>
+        <v>65.27888801843527</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601367</v>
+        <v>48.90025241601366</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179312</v>
+        <v>47.84800227179311</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997943</v>
+        <v>48.31492659997942</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701112</v>
+        <v>64.35108710701111</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218872</v>
+        <v>53.01713980218871</v>
       </c>
       <c r="I16" t="n">
         <v>32.94647717468524</v>
@@ -1831,7 +1831,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.1738853951445</v>
+        <v>117.1738853951444</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H17" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693541</v>
+        <v>7.327087780693562</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271198</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U17" t="n">
         <v>86.38248261101865</v>
@@ -1941,7 +1941,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I18" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S18" t="n">
         <v>145.9864318313356</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177237</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>134.987556219241</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815926</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T19" t="n">
-        <v>217.081347182827</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U19" t="n">
         <v>118.3938685259479</v>
@@ -2096,7 +2096,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H20" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780692317</v>
+        <v>7.327087780693562</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271198</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U20" t="n">
         <v>86.38248261101865</v>
@@ -2178,7 +2178,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I21" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S21" t="n">
         <v>145.9864318313356</v>
@@ -2239,10 +2239,10 @@
         <v>15.80835780120091</v>
       </c>
       <c r="C22" t="n">
-        <v>155.1732191980909</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>134.9875562192411</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177237</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815926</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T22" t="n">
         <v>63.91648063133751</v>
@@ -2333,7 +2333,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H23" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693541</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T23" t="n">
         <v>53.87599349271198</v>
@@ -2415,7 +2415,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I24" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882282</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S24" t="n">
         <v>145.9864318313356</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.9732243526904</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C25" t="n">
         <v>2.008352646601395</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177237</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.86402836161104</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815926</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T25" t="n">
         <v>63.91648063133751</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.4621822983396</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C26" t="n">
         <v>275.4734992560195</v>
@@ -2570,10 +2570,10 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4059562765828</v>
+        <v>221.405956276584</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9463115840788</v>
+        <v>47.94631158407877</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T26" t="n">
         <v>117.1465288645459</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303481</v>
+        <v>79.07889317303479</v>
       </c>
       <c r="C28" t="n">
-        <v>65.2788880184353</v>
+        <v>65.27888801843527</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601369</v>
+        <v>48.90025241601366</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179313</v>
+        <v>47.84800227179311</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997944</v>
+        <v>48.31492659997942</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701114</v>
+        <v>64.35108710701111</v>
       </c>
       <c r="H28" t="n">
-        <v>53.01713980218873</v>
+        <v>53.0171398021887</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537677</v>
+        <v>34.65991636537674</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7746029199932</v>
+        <v>104.7746029199931</v>
       </c>
       <c r="T28" t="n">
         <v>127.1870160031714</v>
@@ -2779,7 +2779,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951445</v>
+        <v>117.1738853951444</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.4621822983378</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C29" t="n">
         <v>275.4734992560195</v>
       </c>
       <c r="D29" t="n">
-        <v>266.4548033005475</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E29" t="n">
         <v>288.196940870453</v>
       </c>
       <c r="F29" t="n">
-        <v>307.3687569584302</v>
+        <v>307.3687569584301</v>
       </c>
       <c r="G29" t="n">
         <v>308.7702359084508</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4059562765829</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407881</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.59762315252749</v>
+        <v>70.59762315252745</v>
       </c>
       <c r="T29" t="n">
         <v>117.1465288645459</v>
       </c>
       <c r="U29" t="n">
-        <v>149.6530179828526</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V29" t="n">
-        <v>230.9685595385169</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W29" t="n">
-        <v>256.2686590164738</v>
+        <v>256.2686590164737</v>
       </c>
       <c r="X29" t="n">
         <v>275.5689172492204</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.9655150454192</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I30" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S30" t="n">
         <v>145.9864318313356</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.07889317303486</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C31" t="n">
-        <v>65.27888801843534</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D31" t="n">
-        <v>48.90025241601373</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E31" t="n">
-        <v>47.84800227179318</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F31" t="n">
-        <v>48.31492659997949</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G31" t="n">
-        <v>64.35108710701118</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218877</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I31" t="n">
-        <v>32.9464771746853</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6599163653768</v>
+        <v>34.65991636537676</v>
       </c>
       <c r="S31" t="n">
         <v>104.7746029199932</v>
       </c>
       <c r="T31" t="n">
-        <v>127.1870160031715</v>
+        <v>127.1870160031714</v>
       </c>
       <c r="U31" t="n">
-        <v>181.6644038977818</v>
+        <v>181.6644038977817</v>
       </c>
       <c r="V31" t="n">
         <v>155.4870295726604</v>
       </c>
       <c r="W31" t="n">
-        <v>180.6539156432737</v>
+        <v>180.6539156432736</v>
       </c>
       <c r="X31" t="n">
         <v>126.2990176390768</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.8724782036178</v>
+        <v>284.8724782036177</v>
       </c>
       <c r="C32" t="n">
         <v>272.8837951612995</v>
       </c>
       <c r="D32" t="n">
-        <v>263.8650992058275</v>
+        <v>263.8650992058274</v>
       </c>
       <c r="E32" t="n">
         <v>285.607236775733</v>
@@ -3044,7 +3044,7 @@
         <v>306.1805318137308</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818628</v>
+        <v>218.8162521818629</v>
       </c>
       <c r="I32" t="n">
         <v>45.35660748935879</v>
@@ -3083,7 +3083,7 @@
         <v>114.5568247698259</v>
       </c>
       <c r="U32" t="n">
-        <v>147.0633138881326</v>
+        <v>147.0633138881325</v>
       </c>
       <c r="V32" t="n">
         <v>228.3788554437969</v>
@@ -3126,7 +3126,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I33" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S33" t="n">
         <v>145.9864318313356</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831484</v>
+        <v>76.48918907831481</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371532</v>
+        <v>62.68918392371529</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129371</v>
+        <v>46.31054832129368</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707316</v>
+        <v>45.25829817707313</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525947</v>
+        <v>45.72522250525944</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229116</v>
+        <v>61.76138301229113</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746875</v>
+        <v>50.42743570746873</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996528</v>
+        <v>30.35677307996527</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065678</v>
+        <v>32.07021227065677</v>
       </c>
       <c r="S34" t="n">
         <v>102.1848988252732</v>
@@ -3241,7 +3241,7 @@
         <v>124.5973119084514</v>
       </c>
       <c r="U34" t="n">
-        <v>179.0746998030618</v>
+        <v>179.0746998030617</v>
       </c>
       <c r="V34" t="n">
         <v>152.8973254779404</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9374148203186</v>
+        <v>236.9374148203185</v>
       </c>
       <c r="C35" t="n">
-        <v>224.9487317780004</v>
+        <v>224.9487317780003</v>
       </c>
       <c r="D35" t="n">
         <v>215.9300358225283</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6721733924339</v>
+        <v>237.6721733924338</v>
       </c>
       <c r="F35" t="n">
         <v>256.843989480411</v>
       </c>
       <c r="G35" t="n">
-        <v>258.2454684304317</v>
+        <v>258.2454684304316</v>
       </c>
       <c r="H35" t="n">
         <v>170.8811887985637</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450833</v>
+        <v>20.07285567450828</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652677</v>
+        <v>66.62176138652669</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483343</v>
+        <v>99.12825050483335</v>
       </c>
       <c r="V35" t="n">
         <v>180.4437920604977</v>
@@ -3329,10 +3329,10 @@
         <v>205.7438915384546</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0441497712013</v>
+        <v>225.0441497712012</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.4407475674</v>
+        <v>236.4407475673999</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I36" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S36" t="n">
         <v>145.9864318313356</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.5541256950157</v>
+        <v>28.55412569501561</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041618</v>
+        <v>14.7541205404161</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899202</v>
+        <v>13.82631962899194</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169617</v>
+        <v>2.492372324169535</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.46465073114598</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515229</v>
+        <v>76.66224852515221</v>
       </c>
       <c r="U37" t="n">
         <v>131.1396364197626</v>
       </c>
       <c r="V37" t="n">
-        <v>104.9622620946413</v>
+        <v>104.9622620946412</v>
       </c>
       <c r="W37" t="n">
         <v>130.1291481652545</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105767</v>
+        <v>98.98906545022997</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712535</v>
+        <v>66.64911791712527</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9374148203186</v>
+        <v>236.9374148203185</v>
       </c>
       <c r="C38" t="n">
         <v>224.9487317780003</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.0728556745083</v>
+        <v>20.07285567450828</v>
       </c>
       <c r="T38" t="n">
-        <v>66.62176138652674</v>
+        <v>66.62176138652669</v>
       </c>
       <c r="U38" t="n">
-        <v>99.1282505048334</v>
+        <v>99.12825050483335</v>
       </c>
       <c r="V38" t="n">
         <v>180.4437920604977</v>
@@ -3569,7 +3569,7 @@
         <v>225.0441497712012</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.4407475674</v>
+        <v>236.4407475673999</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I39" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.52047263646529</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S39" t="n">
         <v>145.9864318313356</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.55412569501567</v>
+        <v>28.55412569501561</v>
       </c>
       <c r="C40" t="n">
-        <v>14.75412054041615</v>
+        <v>14.7541205404161</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.82631962899199</v>
+        <v>13.82631962899194</v>
       </c>
       <c r="H40" t="n">
-        <v>2.492372324169588</v>
+        <v>2.492372324169535</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.17731033224803</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.24983544197402</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T40" t="n">
-        <v>81.69975348207645</v>
+        <v>99.8770638143247</v>
       </c>
       <c r="U40" t="n">
         <v>131.1396364197626</v>
       </c>
       <c r="V40" t="n">
-        <v>104.9622620946413</v>
+        <v>104.9622620946412</v>
       </c>
       <c r="W40" t="n">
         <v>130.1291481652545</v>
       </c>
       <c r="X40" t="n">
-        <v>75.77425016105764</v>
+        <v>75.77425016105758</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.64911791712532</v>
+        <v>66.64911791712527</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>257.8872195726045</v>
       </c>
       <c r="C41" t="n">
-        <v>245.8985365302862</v>
+        <v>185.4549239759256</v>
       </c>
       <c r="D41" t="n">
         <v>236.8798405748142</v>
       </c>
       <c r="E41" t="n">
-        <v>258.6219781447197</v>
+        <v>258.6219781447198</v>
       </c>
       <c r="F41" t="n">
         <v>277.7937942326969</v>
       </c>
       <c r="G41" t="n">
-        <v>26.92066707750953</v>
+        <v>279.1952731827176</v>
       </c>
       <c r="H41" t="n">
-        <v>191.8309935508496</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881264</v>
+        <v>87.57156613881267</v>
       </c>
       <c r="U41" t="n">
         <v>120.0780552571193</v>
@@ -3803,7 +3803,7 @@
         <v>226.6936962907405</v>
       </c>
       <c r="X41" t="n">
-        <v>245.9939545234871</v>
+        <v>245.9939545234872</v>
       </c>
       <c r="Y41" t="n">
         <v>257.3905523196859</v>
@@ -3837,7 +3837,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I42" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.5204726364653</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S42" t="n">
         <v>145.9864318313356</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730157</v>
+        <v>49.5039304473016</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270205</v>
+        <v>35.70392529270208</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028044</v>
+        <v>19.32528969028047</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605989</v>
+        <v>18.27303954605992</v>
       </c>
       <c r="F43" t="n">
-        <v>18.7399638742462</v>
+        <v>18.73996387424623</v>
       </c>
       <c r="G43" t="n">
-        <v>34.7761243812779</v>
+        <v>34.77612438127792</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645549</v>
+        <v>23.44217707645552</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448952022</v>
+        <v>3.371514448952057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643521</v>
+        <v>5.084953639643562</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019425993</v>
+        <v>75.19964019425996</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743816</v>
+        <v>97.61205327743819</v>
       </c>
       <c r="U43" t="n">
         <v>152.0894411720485</v>
@@ -3961,10 +3961,10 @@
         <v>151.0789529175404</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334354</v>
+        <v>96.72405491334356</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941122</v>
+        <v>87.59892266941125</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>245.8985365302862</v>
       </c>
       <c r="D44" t="n">
-        <v>236.8798405748142</v>
+        <v>135.4135675936607</v>
       </c>
       <c r="E44" t="n">
         <v>258.6219781447197</v>
@@ -3989,13 +3989,13 @@
         <v>277.7937942326969</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508496</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834554</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.0226604267942</v>
+        <v>41.02266042679422</v>
       </c>
       <c r="T44" t="n">
         <v>87.57156613881264</v>
@@ -4037,7 +4037,7 @@
         <v>201.3935968127836</v>
       </c>
       <c r="W44" t="n">
-        <v>194.2203540831096</v>
+        <v>226.6936962907405</v>
       </c>
       <c r="X44" t="n">
         <v>245.9939545234871</v>
@@ -4074,7 +4074,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I45" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.5204726364653</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S45" t="n">
         <v>145.9864318313356</v>
@@ -4153,7 +4153,7 @@
         <v>23.44217707645549</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448952022</v>
+        <v>3.371514448952029</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643521</v>
+        <v>5.084953639643533</v>
       </c>
       <c r="S46" t="n">
         <v>75.19964019425993</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E8" t="n">
         <v>21.02234760148574</v>
@@ -4805,19 +4805,19 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L8" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
         <v>40.03871513172544</v>
@@ -4835,19 +4835,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D9" t="n">
         <v>21.02234760148574</v>
       </c>
       <c r="E9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
         <v>10.91156095206012</v>
@@ -4875,7 +4875,7 @@
         <v>10.91156095206012</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4887,13 +4887,13 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="O9" t="n">
         <v>20.21955114152135</v>
@@ -4908,25 +4908,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
         <v>0.8007743026345088</v>
@@ -4963,16 +4963,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N10" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O10" t="n">
         <v>40.03871513172544</v>
@@ -4996,16 +4996,16 @@
         <v>29.92792848229982</v>
       </c>
       <c r="V10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1527.467937818624</v>
+        <v>1242.366025916038</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.211877964059</v>
+        <v>964.1099660614732</v>
       </c>
       <c r="D11" t="n">
-        <v>980.0656120039098</v>
+        <v>964.1099660614732</v>
       </c>
       <c r="E11" t="n">
-        <v>896.6443250575639</v>
+        <v>673.0019449802076</v>
       </c>
       <c r="F11" t="n">
-        <v>586.1708331803618</v>
+        <v>362.5284531030054</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2817060001084</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H11" t="n">
         <v>50.63932592275207</v>
@@ -5039,25 +5039,25 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J11" t="n">
-        <v>167.3214431483647</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K11" t="n">
-        <v>474.4309080280418</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L11" t="n">
-        <v>905.397362586943</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.122262796983</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.393168528416</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O11" t="n">
-        <v>2228.102203462698</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.966296137603</v>
@@ -5069,22 +5069,22 @@
         <v>2460.655565680505</v>
       </c>
       <c r="T11" t="n">
-        <v>2460.655565680505</v>
+        <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2309.490901051361</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V11" t="n">
-        <v>2076.18932575993</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="W11" t="n">
-        <v>1817.332094430159</v>
+        <v>1932.303842585684</v>
       </c>
       <c r="X11" t="n">
-        <v>1817.332094430159</v>
+        <v>1822.596023232965</v>
       </c>
       <c r="Y11" t="n">
-        <v>1527.467937818624</v>
+        <v>1532.73186662143</v>
       </c>
     </row>
     <row r="12">
@@ -5097,16 +5097,16 @@
         <v>916.993594840569</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815239</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F12" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784816</v>
       </c>
       <c r="G12" t="n">
         <v>206.2883833353462</v>
@@ -5121,19 +5121,19 @@
         <v>137.5067023934301</v>
       </c>
       <c r="K12" t="n">
-        <v>412.4835038098272</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4672239188731</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6037153416569</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N12" t="n">
-        <v>1523.131416247197</v>
+        <v>1879.017169097102</v>
       </c>
       <c r="O12" t="n">
-        <v>1982.351834253087</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="P12" t="n">
         <v>2338.237587102991</v>
@@ -5145,19 +5145,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
         <v>1268.934363972251</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238701</v>
+        <v>414.93909702387</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981779</v>
+        <v>349.0008262981778</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385681</v>
+        <v>299.606631938568</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125144</v>
+        <v>251.2753165125143</v>
       </c>
       <c r="F13" t="n">
-        <v>202.472360350919</v>
+        <v>202.4723603509189</v>
       </c>
       <c r="G13" t="n">
-        <v>137.471262263029</v>
+        <v>137.4712622630289</v>
       </c>
       <c r="H13" t="n">
-        <v>83.91859579617153</v>
+        <v>83.91859579617162</v>
       </c>
       <c r="I13" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
-        <v>110.0880241976687</v>
+        <v>110.0880241976688</v>
       </c>
       <c r="K13" t="n">
-        <v>272.7438500392106</v>
+        <v>272.743850039211</v>
       </c>
       <c r="L13" t="n">
-        <v>510.0755164020619</v>
+        <v>510.0755164020622</v>
       </c>
       <c r="M13" t="n">
         <v>766.7021857489992</v>
@@ -5212,13 +5212,13 @@
         <v>1022.877469947108</v>
       </c>
       <c r="O13" t="n">
-        <v>1256.335318182741</v>
+        <v>1256.33531818274</v>
       </c>
       <c r="P13" t="n">
         <v>1449.480405090492</v>
       </c>
       <c r="Q13" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R13" t="n">
         <v>1498.089363937139</v>
@@ -5233,16 +5233,16 @@
         <v>1080.285300481638</v>
       </c>
       <c r="V13" t="n">
-        <v>923.227694852688</v>
+        <v>923.2276948526878</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827147</v>
+        <v>740.7489921827145</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907179</v>
+        <v>613.1742268907177</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956225</v>
+        <v>494.8167668956223</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.585560214414</v>
+        <v>840.4198283114487</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.585560214414</v>
+        <v>562.1637684568834</v>
       </c>
       <c r="D14" t="n">
-        <v>1094.439294254265</v>
+        <v>562.1637684568834</v>
       </c>
       <c r="E14" t="n">
-        <v>803.3312731729998</v>
+        <v>562.1637684568834</v>
       </c>
       <c r="F14" t="n">
-        <v>492.8577812957976</v>
+        <v>362.5284531030053</v>
       </c>
       <c r="G14" t="n">
-        <v>180.9686541155443</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H14" t="n">
-        <v>99.06994368444779</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I14" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J14" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K14" t="n">
-        <v>357.7487908024292</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L14" t="n">
-        <v>788.7152453613304</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N14" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O14" t="n">
-        <v>2140.378063430513</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P14" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.966296137603</v>
@@ -5312,16 +5312,16 @@
         <v>2191.161073915457</v>
       </c>
       <c r="V14" t="n">
-        <v>2191.161073915457</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>1932.303842585685</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X14" t="n">
-        <v>1653.951400919806</v>
+        <v>1420.649825628375</v>
       </c>
       <c r="Y14" t="n">
-        <v>1653.951400919806</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405698</v>
       </c>
       <c r="C15" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815245</v>
       </c>
       <c r="D15" t="n">
-        <v>616.4512850717358</v>
+        <v>616.4512850717366</v>
       </c>
       <c r="E15" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286078</v>
       </c>
       <c r="F15" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784822</v>
       </c>
       <c r="G15" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353469</v>
       </c>
       <c r="H15" t="n">
         <v>109.1262650326734</v>
@@ -5358,16 +5358,16 @@
         <v>137.5067023934301</v>
       </c>
       <c r="K15" t="n">
-        <v>412.4835038098272</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L15" t="n">
-        <v>839.4672239188731</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M15" t="n">
-        <v>938.6037153416569</v>
+        <v>938.6037153416572</v>
       </c>
       <c r="N15" t="n">
-        <v>1523.131416247197</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O15" t="n">
         <v>1982.351834253087</v>
@@ -5382,25 +5382,25 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T15" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V15" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972252</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.41303762183</v>
+        <v>1076.413037621831</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238702</v>
+        <v>414.9390970238695</v>
       </c>
       <c r="C16" t="n">
-        <v>349.000826298178</v>
+        <v>349.0008262981773</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385682</v>
+        <v>299.6066319385676</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125146</v>
+        <v>251.2753165125139</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509192</v>
+        <v>202.4723603509186</v>
       </c>
       <c r="G16" t="n">
-        <v>137.471262263029</v>
+        <v>137.4712622630285</v>
       </c>
       <c r="H16" t="n">
-        <v>83.91859579617176</v>
+        <v>83.91859579617153</v>
       </c>
       <c r="I16" t="n">
         <v>50.63932592275207</v>
@@ -5440,46 +5440,46 @@
         <v>272.7438500392109</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0755164020622</v>
+        <v>510.0755164020621</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489992</v>
+        <v>766.702185748999</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
       </c>
       <c r="O16" t="n">
-        <v>1256.335318182741</v>
+        <v>1256.33531818274</v>
       </c>
       <c r="P16" t="n">
         <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.089363937139</v>
+        <v>1498.089363937138</v>
       </c>
       <c r="S16" t="n">
-        <v>1392.256431694722</v>
+        <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
-        <v>1263.784698358185</v>
+        <v>1263.784698358184</v>
       </c>
       <c r="U16" t="n">
-        <v>1080.285300481638</v>
+        <v>1080.285300481637</v>
       </c>
       <c r="V16" t="n">
-        <v>923.227694852688</v>
+        <v>923.2276948526871</v>
       </c>
       <c r="W16" t="n">
-        <v>740.7489921827147</v>
+        <v>740.7489921827138</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1742268907179</v>
+        <v>613.1742268907173</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956225</v>
+        <v>494.8167668956219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.696881821216</v>
+        <v>1351.696881821217</v>
       </c>
       <c r="C17" t="n">
         <v>1137.350453655373</v>
       </c>
       <c r="D17" t="n">
-        <v>932.113819383945</v>
+        <v>932.1138193839452</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914005</v>
+        <v>704.9154299914006</v>
       </c>
       <c r="F17" t="n">
-        <v>458.3515698029195</v>
+        <v>458.3515698029196</v>
       </c>
       <c r="G17" t="n">
         <v>210.3720743113874</v>
@@ -5513,22 +5513,22 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J17" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7487908024292</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L17" t="n">
-        <v>788.7152453613304</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M17" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N17" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O17" t="n">
-        <v>2140.378063430513</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P17" t="n">
         <v>2380.681090994256</v>
@@ -5546,10 +5546,10 @@
         <v>2470.145001922042</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.88996898162</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.498025378909</v>
+        <v>2213.49802537891</v>
       </c>
       <c r="W17" t="n">
         <v>2018.550425737859</v>
@@ -5558,7 +5558,7 @@
         <v>1804.107615760701</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837888</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>137.5067023934301</v>
       </c>
       <c r="K18" t="n">
-        <v>412.4835038098272</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L18" t="n">
-        <v>839.4672239188731</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M18" t="n">
-        <v>1395.873600663561</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N18" t="n">
         <v>1523.131416247197</v>
@@ -5674,31 +5674,31 @@
         <v>50.63932592275207</v>
       </c>
       <c r="K19" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L19" t="n">
-        <v>247.3977929146332</v>
+        <v>247.3977929146331</v>
       </c>
       <c r="M19" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N19" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471667</v>
       </c>
       <c r="O19" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765426</v>
       </c>
       <c r="P19" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780378</v>
       </c>
       <c r="Q19" t="n">
-        <v>780.3446311780383</v>
+        <v>761.9837116505146</v>
       </c>
       <c r="R19" t="n">
-        <v>780.3446311780383</v>
+        <v>625.6326447623924</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243421</v>
+        <v>583.7093442086962</v>
       </c>
       <c r="T19" t="n">
         <v>519.1472425608805</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.696881821218</v>
+        <v>1351.696881821217</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.350453655374</v>
+        <v>1137.350453655373</v>
       </c>
       <c r="D20" t="n">
-        <v>932.1138193839462</v>
+        <v>932.1138193839449</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914014</v>
+        <v>704.9154299914007</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029203</v>
+        <v>458.3515698029195</v>
       </c>
       <c r="G20" t="n">
         <v>210.3720743113874</v>
@@ -5750,13 +5750,13 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J20" t="n">
-        <v>167.3214431483647</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
-        <v>474.4309080280418</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L20" t="n">
-        <v>905.397362586943</v>
+        <v>905.3973625869427</v>
       </c>
       <c r="M20" t="n">
         <v>1391.080239990411</v>
@@ -5765,10 +5765,10 @@
         <v>1863.351145721844</v>
       </c>
       <c r="O20" t="n">
-        <v>2257.060180656125</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P20" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.966296137603</v>
@@ -5777,25 +5777,25 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.565197369227</v>
+        <v>2524.565197369226</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922044</v>
+        <v>2470.145001922042</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.55042573786</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X20" t="n">
         <v>1804.107615760701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837887</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>916.993594840569</v>
       </c>
       <c r="C21" t="n">
-        <v>755.2899220815239</v>
+        <v>755.2899220815237</v>
       </c>
       <c r="D21" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717358</v>
       </c>
       <c r="E21" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286071</v>
       </c>
       <c r="F21" t="n">
-        <v>334.7294770784816</v>
+        <v>334.7294770784815</v>
       </c>
       <c r="G21" t="n">
         <v>206.2883833353462</v>
@@ -5832,22 +5832,22 @@
         <v>137.5067023934301</v>
       </c>
       <c r="K21" t="n">
-        <v>412.4835038098272</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L21" t="n">
-        <v>839.4672239188731</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M21" t="n">
-        <v>938.6037153416569</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N21" t="n">
         <v>1523.131416247197</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.351834253087</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5856,19 +5856,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X21" t="n">
         <v>1268.934363972251</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.4714177745381</v>
+        <v>190.1104982470144</v>
       </c>
       <c r="C22" t="n">
-        <v>51.730792321921</v>
+        <v>188.0818592100433</v>
       </c>
       <c r="D22" t="n">
         <v>51.730792321921</v>
@@ -5911,49 +5911,49 @@
         <v>50.63932592275207</v>
       </c>
       <c r="K22" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L22" t="n">
-        <v>247.3977929146332</v>
+        <v>247.3977929146331</v>
       </c>
       <c r="M22" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N22" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471667</v>
       </c>
       <c r="O22" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765426</v>
       </c>
       <c r="P22" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780378</v>
       </c>
       <c r="Q22" t="n">
-        <v>780.3446311780383</v>
+        <v>761.9837116505146</v>
       </c>
       <c r="R22" t="n">
-        <v>780.3446311780383</v>
+        <v>761.9837116505146</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243421</v>
+        <v>720.0604110968184</v>
       </c>
       <c r="T22" t="n">
-        <v>673.8592289765264</v>
+        <v>655.4983094490027</v>
       </c>
       <c r="U22" t="n">
-        <v>554.2694627887004</v>
+        <v>535.9085432611766</v>
       </c>
       <c r="V22" t="n">
-        <v>461.1214888484716</v>
+        <v>442.7605693209479</v>
       </c>
       <c r="W22" t="n">
-        <v>342.5524178672193</v>
+        <v>324.1914983396956</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8872842639436</v>
+        <v>260.5263647364199</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.4394559575693</v>
+        <v>206.0785364300456</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J23" t="n">
-        <v>167.3214431483647</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>474.4309080280418</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L23" t="n">
-        <v>905.397362586943</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.080239990411</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N23" t="n">
-        <v>1863.351145721844</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O23" t="n">
         <v>2076.816998319351</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405698</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815245</v>
       </c>
       <c r="D24" t="n">
-        <v>616.4512850717358</v>
+        <v>616.4512850717366</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286078</v>
       </c>
       <c r="F24" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784822</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353469</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1262650326734</v>
+        <v>109.1262650326741</v>
       </c>
       <c r="I24" t="n">
         <v>50.63932592275207</v>
@@ -6069,22 +6069,22 @@
         <v>50.63932592275207</v>
       </c>
       <c r="K24" t="n">
-        <v>50.63932592275207</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L24" t="n">
-        <v>477.623046031798</v>
+        <v>382.1973385969698</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.029422776485</v>
+        <v>938.6037153416572</v>
       </c>
       <c r="N24" t="n">
-        <v>1618.557123682026</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O24" t="n">
-        <v>2077.777541687915</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P24" t="n">
-        <v>2433.66329453782</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6093,25 +6093,25 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972252</v>
       </c>
       <c r="Y24" t="n">
-        <v>1076.41303762183</v>
+        <v>1076.413037621831</v>
       </c>
     </row>
     <row r="25">
@@ -6148,49 +6148,49 @@
         <v>50.63932592275207</v>
       </c>
       <c r="K25" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L25" t="n">
-        <v>247.3977929146332</v>
+        <v>247.3977929146331</v>
       </c>
       <c r="M25" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N25" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471667</v>
       </c>
       <c r="O25" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765426</v>
       </c>
       <c r="P25" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780378</v>
       </c>
       <c r="Q25" t="n">
-        <v>780.3446311780383</v>
+        <v>764.3203601057035</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780383</v>
+        <v>625.6326447623924</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4213306243421</v>
+        <v>583.7093442086962</v>
       </c>
       <c r="T25" t="n">
-        <v>673.8592289765264</v>
+        <v>519.1472425608805</v>
       </c>
       <c r="U25" t="n">
-        <v>554.2694627887004</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V25" t="n">
-        <v>461.1214888484716</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W25" t="n">
-        <v>342.5524178672193</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8872842639436</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.4394559575693</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.833564437766</v>
+        <v>1802.833564437767</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.577504583201</v>
+        <v>1524.577504583202</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.431238623052</v>
+        <v>1255.431238623053</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417861</v>
+        <v>964.3232175417872</v>
       </c>
       <c r="F26" t="n">
-        <v>653.849725664584</v>
+        <v>653.8497256645851</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843306</v>
+        <v>341.9605984843318</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069742</v>
       </c>
       <c r="I26" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J26" t="n">
-        <v>288.1842304771473</v>
+        <v>192.3395430980113</v>
       </c>
       <c r="K26" t="n">
-        <v>696.9082079630805</v>
+        <v>601.0635205839446</v>
       </c>
       <c r="L26" t="n">
-        <v>1229.489175128238</v>
+        <v>1133.644487749102</v>
       </c>
       <c r="M26" t="n">
-        <v>1816.786565137962</v>
+        <v>1720.941877758826</v>
       </c>
       <c r="N26" t="n">
-        <v>2390.671983475651</v>
+        <v>2294.827296096516</v>
       </c>
       <c r="O26" t="n">
         <v>2790.150843637053</v>
@@ -6248,28 +6248,28 @@
         <v>3448.529166667818</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.380032263923</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806825</v>
+        <v>3423.069301806824</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.73947467092</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.574810041776</v>
+        <v>3153.574810041775</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.273234750345</v>
+        <v>2920.273234750343</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.416003420573</v>
+        <v>2661.416003420572</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.063561754694</v>
+        <v>2383.063561754693</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143159</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J27" t="n">
-        <v>69.88760064527845</v>
+        <v>156.7549771159565</v>
       </c>
       <c r="K27" t="n">
-        <v>69.88760064527845</v>
+        <v>431.7317785323535</v>
       </c>
       <c r="L27" t="n">
-        <v>401.4456133194952</v>
+        <v>858.7154986413993</v>
       </c>
       <c r="M27" t="n">
         <v>957.8519900641827</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463964</v>
+        <v>434.1873717463956</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2491010207042</v>
+        <v>368.2491010207034</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610944</v>
+        <v>318.8549066610937</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350407</v>
+        <v>270.52359123504</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734453</v>
+        <v>221.7206350734446</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855552</v>
+        <v>156.7195369855546</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1668705186979</v>
+        <v>103.1668705186974</v>
       </c>
       <c r="I28" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J28" t="n">
         <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617373</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245885</v>
+        <v>529.3237911245886</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715255</v>
+        <v>785.9504604715257</v>
       </c>
       <c r="N28" t="n">
         <v>1042.125744669635</v>
@@ -6403,31 +6403,31 @@
         <v>1468.728679813018</v>
       </c>
       <c r="Q28" t="n">
-        <v>1552.347655190349</v>
+        <v>1552.347655190348</v>
       </c>
       <c r="R28" t="n">
         <v>1517.337638659665</v>
       </c>
       <c r="S28" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.032973080712</v>
+        <v>1283.032973080711</v>
       </c>
       <c r="U28" t="n">
-        <v>1099.533575204164</v>
+        <v>1099.533575204163</v>
       </c>
       <c r="V28" t="n">
-        <v>942.4759695752143</v>
+        <v>942.4759695752134</v>
       </c>
       <c r="W28" t="n">
-        <v>759.997266905241</v>
+        <v>759.9972669052401</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132442</v>
+        <v>632.4225016132433</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181488</v>
+        <v>514.0650416181479</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1255.431238623053</v>
       </c>
       <c r="E29" t="n">
-        <v>964.323217541787</v>
+        <v>964.3232175417874</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8497256645849</v>
+        <v>653.8497256645851</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843315</v>
+        <v>341.9605984843305</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069742</v>
       </c>
       <c r="I29" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J29" t="n">
-        <v>288.1842304771472</v>
+        <v>288.1842304771471</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630805</v>
+        <v>696.9082079630804</v>
       </c>
       <c r="L29" t="n">
         <v>1229.489175128238</v>
@@ -6485,13 +6485,13 @@
         <v>3448.529166667818</v>
       </c>
       <c r="R29" t="n">
-        <v>3494.380032263923</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S29" t="n">
         <v>3423.069301806824</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.73947467092</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U29" t="n">
         <v>3153.574810041775</v>
@@ -6506,7 +6506,7 @@
         <v>2383.063561754693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.199405143158</v>
+        <v>2093.199405143159</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>128.3745397551997</v>
       </c>
       <c r="I30" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J30" t="n">
-        <v>156.7549771159565</v>
+        <v>156.7549771159564</v>
       </c>
       <c r="K30" t="n">
-        <v>431.7317785323535</v>
+        <v>431.7317785323534</v>
       </c>
       <c r="L30" t="n">
-        <v>858.7154986413994</v>
+        <v>858.7154986413991</v>
       </c>
       <c r="M30" t="n">
-        <v>1415.121875386087</v>
+        <v>957.851990064183</v>
       </c>
       <c r="N30" t="n">
         <v>1542.379690969723</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.1873717463967</v>
+        <v>434.1873717463963</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207044</v>
+        <v>368.2491010207041</v>
       </c>
       <c r="D31" t="n">
-        <v>318.8549066610946</v>
+        <v>318.8549066610943</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350408</v>
+        <v>270.5235912350407</v>
       </c>
       <c r="F31" t="n">
-        <v>221.7206350734454</v>
+        <v>221.7206350734453</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7195369855553</v>
+        <v>156.7195369855552</v>
       </c>
       <c r="H31" t="n">
         <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
-        <v>69.88760064527845</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J31" t="n">
-        <v>129.336298920195</v>
+        <v>129.3362989201956</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617377</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245884</v>
+        <v>529.323791124589</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715254</v>
+        <v>785.9504604715261</v>
       </c>
       <c r="N31" t="n">
         <v>1042.125744669635</v>
@@ -6637,34 +6637,34 @@
         <v>1275.583592905267</v>
       </c>
       <c r="P31" t="n">
-        <v>1468.728679813018</v>
+        <v>1468.728679813019</v>
       </c>
       <c r="Q31" t="n">
-        <v>1552.34765519035</v>
+        <v>1552.347655190349</v>
       </c>
       <c r="R31" t="n">
         <v>1517.337638659666</v>
       </c>
       <c r="S31" t="n">
-        <v>1411.504706417249</v>
+        <v>1411.504706417248</v>
       </c>
       <c r="T31" t="n">
         <v>1283.032973080712</v>
       </c>
       <c r="U31" t="n">
-        <v>1099.533575204165</v>
+        <v>1099.533575204164</v>
       </c>
       <c r="V31" t="n">
-        <v>942.4759695752148</v>
+        <v>942.4759695752143</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052413</v>
+        <v>759.997266905241</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132445</v>
+        <v>632.4225016132442</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181491</v>
+        <v>514.0650416181486</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1241.551150710721</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513949</v>
+        <v>953.0589923513944</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961323</v>
+        <v>645.2013631961319</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378183</v>
+        <v>335.9280987378179</v>
       </c>
       <c r="H32" t="n">
         <v>114.9015813824003</v>
       </c>
       <c r="I32" t="n">
-        <v>69.08682634264395</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J32" t="n">
-        <v>289.9472632282855</v>
+        <v>235.9686911961326</v>
       </c>
       <c r="K32" t="n">
-        <v>701.2350477679917</v>
+        <v>647.2564757358386</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.379821986922</v>
+        <v>1078.22293029474</v>
       </c>
       <c r="M32" t="n">
-        <v>1826.241019050419</v>
+        <v>1668.084127358236</v>
       </c>
       <c r="N32" t="n">
-        <v>2402.690244441881</v>
+        <v>2244.533352749699</v>
       </c>
       <c r="O32" t="n">
-        <v>2900.577599036191</v>
+        <v>2742.420707344008</v>
       </c>
       <c r="P32" t="n">
-        <v>3303.05611198885</v>
+        <v>3150.463119678943</v>
       </c>
       <c r="Q32" t="n">
-        <v>3454.341317132197</v>
+        <v>3405.926644482319</v>
       </c>
       <c r="R32" t="n">
         <v>3454.341317132197</v>
       </c>
       <c r="S32" t="n">
-        <v>3385.646449397038</v>
+        <v>3385.646449397037</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.932484983073</v>
+        <v>3269.932484983072</v>
       </c>
       <c r="U32" t="n">
-        <v>3121.383683075868</v>
+        <v>3121.383683075867</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506376</v>
+        <v>2890.697970506375</v>
       </c>
       <c r="W32" t="n">
         <v>2634.456601898543</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.720022954604</v>
+        <v>2358.720022954603</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065009</v>
+        <v>2071.471729065008</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>127.5737654525652</v>
       </c>
       <c r="I33" t="n">
-        <v>69.08682634264395</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J33" t="n">
-        <v>155.954202813322</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297191</v>
+        <v>344.0636277590409</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387649</v>
+        <v>771.0473478680867</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.321101083453</v>
+        <v>1150.779924796161</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.578916667089</v>
+        <v>1735.307625701701</v>
       </c>
       <c r="O33" t="n">
-        <v>2000.799334672978</v>
+        <v>2194.52804370759</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.685087522882</v>
+        <v>2550.413796557495</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.413796557495</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901862</v>
+        <v>415.075558390186</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864334</v>
+        <v>351.7531503864332</v>
       </c>
       <c r="D34" t="n">
-        <v>304.974818748763</v>
+        <v>304.9748187487629</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446487</v>
+        <v>259.2593660446486</v>
       </c>
       <c r="F34" t="n">
         <v>213.0722726049926</v>
       </c>
       <c r="G34" t="n">
-        <v>150.687037239042</v>
+        <v>150.6870372390419</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412403</v>
+        <v>99.750233494124</v>
       </c>
       <c r="I34" t="n">
-        <v>69.08682634264395</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J34" t="n">
         <v>131.0993316713333</v>
       </c>
       <c r="K34" t="n">
-        <v>233.9547045854362</v>
+        <v>296.3189645666482</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8501780020603</v>
+        <v>536.2144379832723</v>
       </c>
       <c r="M34" t="n">
-        <v>733.0406544027701</v>
+        <v>733.0406544027699</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546519</v>
+        <v>991.7797456546517</v>
       </c>
       <c r="O34" t="n">
         <v>1227.801400944057</v>
@@ -6877,13 +6877,13 @@
         <v>1423.510294905581</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336685</v>
+        <v>1509.693077336684</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.298923527941</v>
+        <v>1477.29892352794</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007463</v>
+        <v>1374.081854007462</v>
       </c>
       <c r="T34" t="n">
         <v>1248.225983392865</v>
@@ -6892,16 +6892,16 @@
         <v>1067.342448238257</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312466</v>
+        <v>912.9007053312463</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832126</v>
+        <v>733.0378653832123</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131553</v>
+        <v>608.0789628131549</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399992</v>
+        <v>492.3373655399989</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1205.401451068237</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727535</v>
+        <v>987.2903037727538</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561537</v>
+        <v>747.2174013561539</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436173</v>
+        <v>487.7790281436178</v>
       </c>
       <c r="G35" t="n">
         <v>226.9250196280299</v>
       </c>
       <c r="H35" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I35" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409519</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206291</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L35" t="n">
         <v>909.0757948795303</v>
@@ -6947,10 +6947,10 @@
         <v>1394.758672282998</v>
       </c>
       <c r="N35" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O35" t="n">
-        <v>2260.738612948713</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P35" t="n">
         <v>2564.602705623618</v>
@@ -6962,10 +6962,10 @@
         <v>2715.887910766965</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.612298974533</v>
+        <v>2695.612298974532</v>
       </c>
       <c r="T35" t="n">
-        <v>2628.317590503294</v>
+        <v>2628.317590503293</v>
       </c>
       <c r="U35" t="n">
         <v>2528.188044538815</v>
@@ -7011,28 +7011,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I36" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J36" t="n">
-        <v>54.31775821533931</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K36" t="n">
-        <v>329.2945596317364</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L36" t="n">
-        <v>756.2782797407823</v>
+        <v>843.1456562114599</v>
       </c>
       <c r="M36" t="n">
-        <v>1312.68465648547</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N36" t="n">
-        <v>1897.212357391011</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.4327753969</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.64472843019</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.70443750178156</v>
+        <v>85.70443750178129</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80128544075511</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075511</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075511</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075511</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753084</v>
+        <v>56.83530601753074</v>
       </c>
       <c r="H37" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I37" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J37" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K37" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L37" t="n">
-        <v>251.0762252072205</v>
+        <v>251.0762252072203</v>
       </c>
       <c r="M37" t="n">
-        <v>406.0883819479012</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N37" t="n">
-        <v>560.6491535397541</v>
+        <v>560.6491535397539</v>
       </c>
       <c r="O37" t="n">
-        <v>692.4924891691302</v>
+        <v>692.4924891691298</v>
       </c>
       <c r="P37" t="n">
-        <v>784.0230634706255</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="Q37" t="n">
-        <v>784.0230634706255</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="R37" t="n">
-        <v>784.0230634706255</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="S37" t="n">
-        <v>705.775941519973</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T37" t="n">
-        <v>628.339326848102</v>
+        <v>651.7886352210026</v>
       </c>
       <c r="U37" t="n">
-        <v>495.8750476362205</v>
+        <v>519.3243560091212</v>
       </c>
       <c r="V37" t="n">
-        <v>389.8525606719364</v>
+        <v>413.3018690448371</v>
       </c>
       <c r="W37" t="n">
-        <v>258.4089766666287</v>
+        <v>281.8582850395296</v>
       </c>
       <c r="X37" t="n">
-        <v>181.8693300392978</v>
+        <v>181.8693300392973</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5469887088681</v>
+        <v>114.5469887088678</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1205.401451068237</v>
       </c>
       <c r="D38" t="n">
-        <v>987.2903037727539</v>
+        <v>987.2903037727538</v>
       </c>
       <c r="E38" t="n">
         <v>747.2174013561539</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436173</v>
+        <v>487.7790281436178</v>
       </c>
       <c r="G38" t="n">
         <v>226.9250196280299</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9998754409519</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K38" t="n">
-        <v>478.1093403206291</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L38" t="n">
-        <v>909.0757948795303</v>
+        <v>909.0757948795301</v>
       </c>
       <c r="M38" t="n">
         <v>1394.758672282998</v>
       </c>
       <c r="N38" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O38" t="n">
-        <v>2260.738612948713</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P38" t="n">
         <v>2564.602705623618</v>
@@ -7199,7 +7199,7 @@
         <v>2715.887910766965</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.612298974533</v>
+        <v>2695.612298974532</v>
       </c>
       <c r="T38" t="n">
         <v>2628.317590503293</v>
@@ -7248,19 +7248,19 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J39" t="n">
-        <v>141.1851346860174</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K39" t="n">
-        <v>141.1851346860174</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1688547950632</v>
+        <v>843.1456562114599</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.575231539751</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N39" t="n">
         <v>1526.809848539784</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.70443750178147</v>
+        <v>85.70443750178129</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075505</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075505</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075505</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075505</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753081</v>
+        <v>56.83530601753074</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K40" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L40" t="n">
-        <v>251.0762252072205</v>
+        <v>251.0762252072203</v>
       </c>
       <c r="M40" t="n">
-        <v>406.0883819479012</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N40" t="n">
-        <v>560.6491535397541</v>
+        <v>560.6491535397539</v>
       </c>
       <c r="O40" t="n">
-        <v>692.4924891691302</v>
+        <v>692.4924891691298</v>
       </c>
       <c r="P40" t="n">
-        <v>784.0230634706255</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="Q40" t="n">
-        <v>765.6621439431023</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="R40" t="n">
-        <v>765.6621439431023</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="S40" t="n">
-        <v>710.8643303653507</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T40" t="n">
-        <v>628.3393268481018</v>
+        <v>628.3393268481011</v>
       </c>
       <c r="U40" t="n">
-        <v>495.8750476362203</v>
+        <v>495.8750476362198</v>
       </c>
       <c r="V40" t="n">
-        <v>389.8525606719362</v>
+        <v>389.8525606719357</v>
       </c>
       <c r="W40" t="n">
-        <v>258.4089766666286</v>
+        <v>258.4089766666282</v>
       </c>
       <c r="X40" t="n">
-        <v>181.8693300392976</v>
+        <v>181.8693300392973</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.546988708868</v>
+        <v>114.5469887088678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1304.768071458649</v>
+        <v>1304.768071458647</v>
       </c>
       <c r="C41" t="n">
-        <v>1056.385711327046</v>
+        <v>1117.439865422358</v>
       </c>
       <c r="D41" t="n">
-        <v>817.1131450898604</v>
+        <v>878.1672991851718</v>
       </c>
       <c r="E41" t="n">
-        <v>555.8788237315575</v>
+        <v>616.932977826869</v>
       </c>
       <c r="F41" t="n">
-        <v>275.2790315773182</v>
+        <v>336.3331856726298</v>
       </c>
       <c r="G41" t="n">
-        <v>248.0864385697328</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="H41" t="n">
         <v>54.31775821533931</v>
@@ -7409,25 +7409,25 @@
         <v>54.31775821533931</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9998754409521</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206292</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795303</v>
+        <v>909.0757948795299</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.738612948713</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P41" t="n">
-        <v>2564.602705623618</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q41" t="n">
         <v>2715.887910766965</v>
@@ -7442,19 +7442,19 @@
         <v>2627.431783354024</v>
       </c>
       <c r="U41" t="n">
-        <v>2506.140818447842</v>
+        <v>2506.140818447841</v>
       </c>
       <c r="V41" t="n">
-        <v>2302.712942879374</v>
+        <v>2302.712942879372</v>
       </c>
       <c r="W41" t="n">
-        <v>2073.729411272565</v>
+        <v>2073.729411272564</v>
       </c>
       <c r="X41" t="n">
-        <v>1825.250669329649</v>
+        <v>1825.250669329647</v>
       </c>
       <c r="Y41" t="n">
-        <v>1565.260212441077</v>
+        <v>1565.260212441076</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F42" t="n">
         <v>338.4079093710687</v>
@@ -7491,22 +7491,22 @@
         <v>141.1851346860173</v>
       </c>
       <c r="K42" t="n">
-        <v>152.6207598151221</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L42" t="n">
-        <v>579.604479924168</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M42" t="n">
-        <v>1136.010856668855</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N42" t="n">
-        <v>1720.538557574396</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O42" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.64472843019</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557171</v>
+        <v>209.5016312557173</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529877</v>
+        <v>173.4370602529879</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163408</v>
+        <v>153.916565616341</v>
       </c>
       <c r="E43" t="n">
-        <v>135.45894991325</v>
+        <v>135.4589499132502</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746175</v>
+        <v>116.5296934746176</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969033</v>
+        <v>81.4022951096904</v>
       </c>
       <c r="H43" t="n">
-        <v>57.7233283657959</v>
+        <v>57.72332836579594</v>
       </c>
       <c r="I43" t="n">
         <v>54.31775821533931</v>
       </c>
       <c r="J43" t="n">
-        <v>85.30139775717925</v>
+        <v>67.30586052825453</v>
       </c>
       <c r="K43" t="n">
-        <v>146.3427109924652</v>
+        <v>128.3471737635405</v>
       </c>
       <c r="L43" t="n">
-        <v>282.0598647490604</v>
+        <v>264.0643275201356</v>
       </c>
       <c r="M43" t="n">
-        <v>437.0720214897411</v>
+        <v>549.9702099655484</v>
       </c>
       <c r="N43" t="n">
-        <v>591.6327930815939</v>
+        <v>835.4247072621333</v>
       </c>
       <c r="O43" t="n">
-        <v>854.3698544157021</v>
+        <v>967.2680428915093</v>
       </c>
       <c r="P43" t="n">
-        <v>945.9004287171974</v>
+        <v>1058.798617193004</v>
       </c>
       <c r="Q43" t="n">
         <v>1058.798617193004</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385283</v>
+        <v>1053.662300385284</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658288</v>
+        <v>977.7030678658293</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522549</v>
+        <v>879.1050342522553</v>
       </c>
       <c r="U43" t="n">
-        <v>725.4793360986705</v>
+        <v>725.479336098671</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926835</v>
+        <v>598.2954301926839</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456729</v>
+        <v>445.6904272456733</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766391</v>
+        <v>347.9893616766394</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045065</v>
+        <v>259.5056014045068</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1296.132396489796</v>
+        <v>1263.331040724513</v>
       </c>
       <c r="C44" t="n">
-        <v>1047.750036358194</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D44" t="n">
-        <v>808.4774701210079</v>
+        <v>878.1672991851718</v>
       </c>
       <c r="E44" t="n">
-        <v>547.2431487627051</v>
+        <v>616.9329778268691</v>
       </c>
       <c r="F44" t="n">
-        <v>266.6433566084657</v>
+        <v>336.3331856726298</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084657</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="H44" t="n">
-        <v>72.87467625407218</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I44" t="n">
         <v>54.31775821533931</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409522</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206293</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795305</v>
+        <v>909.0757948795313</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282999</v>
       </c>
       <c r="N44" t="n">
         <v>1867.029578014432</v>
@@ -7685,13 +7685,13 @@
         <v>2261.275912145239</v>
       </c>
       <c r="W44" t="n">
-        <v>2065.093736303713</v>
+        <v>2032.29238053843</v>
       </c>
       <c r="X44" t="n">
-        <v>1816.614994360797</v>
+        <v>1783.813638595514</v>
       </c>
       <c r="Y44" t="n">
-        <v>1556.624537472225</v>
+        <v>1523.823181706942</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F45" t="n">
         <v>338.4079093710687</v>
@@ -7728,22 +7728,22 @@
         <v>141.1851346860173</v>
       </c>
       <c r="K45" t="n">
-        <v>152.6207598151221</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L45" t="n">
-        <v>579.604479924168</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.010856668855</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.538557574396</v>
+        <v>1709.102932445291</v>
       </c>
       <c r="O45" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7789,40 +7789,40 @@
         <v>153.9165656163408</v>
       </c>
       <c r="E46" t="n">
-        <v>135.45894991325</v>
+        <v>135.4589499132501</v>
       </c>
       <c r="F46" t="n">
         <v>116.5296934746175</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969033</v>
+        <v>81.40229510969034</v>
       </c>
       <c r="H46" t="n">
-        <v>57.7233283657959</v>
+        <v>57.72332836579591</v>
       </c>
       <c r="I46" t="n">
         <v>54.31775821533931</v>
       </c>
       <c r="J46" t="n">
-        <v>143.0456695887318</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="K46" t="n">
-        <v>277.2364366971972</v>
+        <v>246.2527971553574</v>
       </c>
       <c r="L46" t="n">
-        <v>412.9535904537923</v>
+        <v>381.9699509119524</v>
       </c>
       <c r="M46" t="n">
-        <v>567.9657471944731</v>
+        <v>536.9821076526332</v>
       </c>
       <c r="N46" t="n">
-        <v>722.5265187863261</v>
+        <v>722.5265187863264</v>
       </c>
       <c r="O46" t="n">
-        <v>854.3698544157021</v>
+        <v>854.3698544157023</v>
       </c>
       <c r="P46" t="n">
-        <v>945.9004287171974</v>
+        <v>945.9004287171975</v>
       </c>
       <c r="Q46" t="n">
         <v>1058.798617193004</v>
@@ -8453,13 +8453,13 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
-        <v>201.569890946046</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>196.7615618141134</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
@@ -8468,7 +8468,7 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8535,7 +8535,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>125.0891498785942</v>
@@ -8544,7 +8544,7 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
         <v>118.8638848070747</v>
@@ -8611,10 +8611,10 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
         <v>122.8868782403605</v>
@@ -8623,7 +8623,7 @@
         <v>113.7541836609333</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8693,10 +8693,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733902</v>
       </c>
       <c r="M11" t="n">
-        <v>555.1171115271189</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.1961493292427</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8775,16 +8775,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>143.5278098225719</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>520.7368720284393</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767113</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.9648752533801</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.8063917859952</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>143.5278098225719</v>
+        <v>143.5278098225726</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.9648752533801</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>354.1352245510467</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>161.2563135941906</v>
+        <v>161.2563135941912</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9413,13 +9413,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>312.9764150993733</v>
       </c>
       <c r="P20" t="n">
-        <v>389.0878386093642</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.1961493292427</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>143.5278098225719</v>
+        <v>143.5278098225717</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9638,7 +9638,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9650,7 +9650,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>312.9764150993723</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.17352122467489</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K24" t="n">
-        <v>66.05046325130471</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>107.9485005599262</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.7108705870795</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.1735212246749</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>66.05046325130473</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>385.7028454249727</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225715</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225721</v>
       </c>
       <c r="N30" t="n">
-        <v>161.2563135941908</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>426.958199221855</v>
       </c>
       <c r="N33" t="n">
-        <v>161.2563135941908</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517761</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10589,7 +10589,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>542.959578915586</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229275</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.17352122467489</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941917</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>235.5432155787723</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.41490937517756</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>66.05046325130471</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>439.0106584592382</v>
+        <v>161.2563135941917</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578774</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>77.60159974535</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>439.0106584592388</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236962</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155869</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>77.60159974535</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11388,13 +11388,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>327.8865868723674</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.4621822983377</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E11" t="n">
-        <v>205.6098667935707</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407877</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>117.1465288645459</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.5689172492204</v>
+        <v>166.9581760900276</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560195</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>109.7297947580908</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>140.3262329497978</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407878</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.223980916620349e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.147182855075665e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>60.44361255436064</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>252.274606105208</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>191.8309935508497</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834556</v>
+        <v>18.37134885834559</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.0226604267942</v>
+        <v>41.02266042679425</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>101.4662729811535</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827175</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>191.8309935508496</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834556</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>32.47334220763088</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786388.3023314455</v>
+        <v>786388.3023314457</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786388.3023314455</v>
+        <v>786388.3023314457</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858715.5972930479</v>
+        <v>858715.5972930482</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836387.6576864836</v>
+        <v>836387.6576864835</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836387.6576864836</v>
+        <v>836387.6576864835</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>650995.1367812088</v>
       </c>
       <c r="C2" t="n">
-        <v>650995.1367812088</v>
+        <v>650995.1367812089</v>
       </c>
       <c r="D2" t="n">
-        <v>652349.6465141152</v>
+        <v>652349.6465141153</v>
       </c>
       <c r="E2" t="n">
-        <v>589304.02205266</v>
+        <v>589304.0220526599</v>
       </c>
       <c r="F2" t="n">
-        <v>589304.02205266</v>
+        <v>589304.0220526601</v>
       </c>
       <c r="G2" t="n">
-        <v>652480.4514200541</v>
+        <v>652480.4514200537</v>
       </c>
       <c r="H2" t="n">
+        <v>652480.451420054</v>
+      </c>
+      <c r="I2" t="n">
         <v>652480.4514200538</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>652480.4514200559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>652480.4514200556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>652480.451420054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>652480.4514200549</v>
+      </c>
+      <c r="N2" t="n">
         <v>652480.4514200544</v>
       </c>
-      <c r="J2" t="n">
-        <v>652480.4514200558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>652480.4514200555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>652480.4514200536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>652480.4514200551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>652480.4514200551</v>
-      </c>
       <c r="O2" t="n">
-        <v>631392.9529027438</v>
+        <v>631392.9529027434</v>
       </c>
       <c r="P2" t="n">
         <v>631392.9529027436</v>
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>374397.5836627406</v>
+        <v>374397.5836627404</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021374298698698e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746711</v>
+        <v>50616.4282974671</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.75405589251</v>
+        <v>94448.75405589252</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324312</v>
+        <v>52688.19157324309</v>
       </c>
       <c r="M3" t="n">
         <v>147591.2452609262</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030512</v>
+        <v>14736.46536030509</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>269184.8031387582</v>
       </c>
       <c r="F4" t="n">
-        <v>269184.8031387582</v>
+        <v>269184.8031387583</v>
       </c>
       <c r="G4" t="n">
-        <v>311372.5411430192</v>
+        <v>311372.5411430193</v>
       </c>
       <c r="H4" t="n">
-        <v>311372.5411430192</v>
+        <v>311372.5411430193</v>
       </c>
       <c r="I4" t="n">
-        <v>311372.5411430192</v>
+        <v>311372.5411430193</v>
       </c>
       <c r="J4" t="n">
         <v>309745.1728663464</v>
       </c>
       <c r="K4" t="n">
-        <v>309745.1728663463</v>
+        <v>309745.1728663464</v>
       </c>
       <c r="L4" t="n">
         <v>309691.5599886817</v>
@@ -26476,34 +26476,34 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267925</v>
+        <v>49998.56587267924</v>
       </c>
       <c r="F5" t="n">
         <v>49998.56587267925</v>
       </c>
       <c r="G5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="H5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="I5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="J5" t="n">
         <v>64627.25466179929</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179929</v>
+        <v>64627.25466179928</v>
       </c>
       <c r="L5" t="n">
-        <v>64236.38002533608</v>
+        <v>64236.38002533607</v>
       </c>
       <c r="M5" t="n">
-        <v>57041.74109215513</v>
+        <v>57041.74109215512</v>
       </c>
       <c r="N5" t="n">
-        <v>57041.74109215513</v>
+        <v>57041.74109215512</v>
       </c>
       <c r="O5" t="n">
         <v>55280.51195643521</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215760.130366901</v>
+        <v>215755.7617944338</v>
       </c>
       <c r="C6" t="n">
-        <v>215760.1303669011</v>
+        <v>215755.761794434</v>
       </c>
       <c r="D6" t="n">
-        <v>213545.6255665793</v>
+        <v>213545.2408462678</v>
       </c>
       <c r="E6" t="n">
-        <v>-104276.930621518</v>
+        <v>-104462.7436490692</v>
       </c>
       <c r="F6" t="n">
-        <v>270120.6530412226</v>
+        <v>269934.8400136714</v>
       </c>
       <c r="G6" t="n">
-        <v>235173.8254687138</v>
+        <v>235173.8254687134</v>
       </c>
       <c r="H6" t="n">
         <v>285790.2537661807</v>
       </c>
       <c r="I6" t="n">
-        <v>285790.2537661812</v>
+        <v>285790.2537661806</v>
       </c>
       <c r="J6" t="n">
-        <v>183659.2698360177</v>
+        <v>183659.2698360176</v>
       </c>
       <c r="K6" t="n">
         <v>278108.0238919099</v>
       </c>
       <c r="L6" t="n">
-        <v>225864.3198327927</v>
+        <v>225864.3198327931</v>
       </c>
       <c r="M6" t="n">
-        <v>139125.6896450824</v>
+        <v>139125.6896450822</v>
       </c>
       <c r="N6" t="n">
-        <v>286716.9349060087</v>
+        <v>286716.934906008</v>
       </c>
       <c r="O6" t="n">
-        <v>266728.607020697</v>
+        <v>266666.5849662339</v>
       </c>
       <c r="P6" t="n">
-        <v>281465.0723810018</v>
+        <v>281403.0503265391</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>105.2306259192212</v>
       </c>
       <c r="M2" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="N2" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="O2" t="n">
         <v>132.2158845502344</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="F3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="G3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="H3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="I3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="J3" t="n">
         <v>132.2825006662239</v>
       </c>
       <c r="K3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="L3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="M3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="N3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="O3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="P3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662238</v>
       </c>
     </row>
     <row r="4">
@@ -26811,19 +26811,19 @@
         <v>632.9915740344009</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659807</v>
+        <v>873.5950080659806</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659807</v>
+        <v>873.5950080659806</v>
       </c>
       <c r="L4" t="n">
-        <v>863.5853292830493</v>
+        <v>863.5853292830492</v>
       </c>
       <c r="M4" t="n">
-        <v>678.9719776917414</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="N4" t="n">
-        <v>678.9719776917414</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="O4" t="n">
         <v>678.9719776917414</v>
@@ -26917,10 +26917,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183389</v>
+        <v>63.27053537183387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.3703864526673</v>
+        <v>39.37038645266735</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655391</v>
+        <v>65.86023946655386</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329914</v>
+        <v>47.93506338329919</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.4205817003814</v>
+        <v>18.42058170038136</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.282500666224</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6034340315798</v>
+        <v>240.6034340315797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601615</v>
+        <v>438.3685436601614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183389</v>
+        <v>63.27053537183387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.3703864526673</v>
+        <v>39.37038645266735</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>359.0860463421173</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0213376229482</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,10 +27907,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>243.51995785114</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>323.5998025800867</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27935,22 +27935,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>128.6337255676841</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F9" t="n">
-        <v>123.337181286693</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>88.92880009583757</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>159.1032847709306</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>141.5314954575835</v>
+        <v>142.724649168509</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187028</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S14" t="n">
         <v>102.6409218245012</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.166001291305292e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S17" t="n">
         <v>165.9114571963351</v>
@@ -28743,7 +28743,7 @@
         <v>135.5873989991865</v>
       </c>
       <c r="J19" t="n">
-        <v>42.59173164781779</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,16 +28764,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.17731033224803</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>137.300838189878</v>
+        <v>2.313281970637007</v>
       </c>
       <c r="S19" t="n">
         <v>165.9114571963351</v>
       </c>
       <c r="T19" t="n">
-        <v>12.74659064484564</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U19" t="n">
         <v>165.9114571963351</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S20" t="n">
         <v>165.9114571963351</v>
@@ -28959,10 +28959,10 @@
         <v>165.9114571963351</v>
       </c>
       <c r="C22" t="n">
-        <v>12.74659064484558</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>16.55361802127382</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28980,7 +28980,7 @@
         <v>135.5873989991865</v>
       </c>
       <c r="J22" t="n">
-        <v>42.59173164781779</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.17731033224803</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>137.300838189878</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S23" t="n">
         <v>165.9114571963351</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.74659064484558</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C25" t="n">
         <v>165.9114571963351</v>
@@ -29217,7 +29217,7 @@
         <v>135.5873989991865</v>
       </c>
       <c r="J25" t="n">
-        <v>42.59173164781779</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.17731033224803</v>
+        <v>2.313281970637025</v>
       </c>
       <c r="R25" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>165.9114571963351</v>
@@ -29296,7 +29296,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290020472</v>
       </c>
       <c r="K26" t="n">
         <v>102.6409218245012</v>
@@ -29311,7 +29311,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="O26" t="n">
-        <v>5.828106290020969</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P26" t="n">
         <v>102.6409218245012</v>
@@ -29545,7 +29545,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="N29" t="n">
-        <v>5.828106290021026</v>
+        <v>5.828106290020969</v>
       </c>
       <c r="O29" t="n">
         <v>102.6409218245012</v>
@@ -29712,7 +29712,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.6409218245025</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R31" t="n">
         <v>102.6409218245012</v>
@@ -29770,13 +29770,13 @@
         <v>105.2306259192212</v>
       </c>
       <c r="J32" t="n">
-        <v>105.2306259192212</v>
+        <v>50.70681578573351</v>
       </c>
       <c r="K32" t="n">
         <v>105.2306259192212</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192212</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>105.2306259192212</v>
@@ -29788,13 +29788,13 @@
         <v>105.2306259192212</v>
       </c>
       <c r="P32" t="n">
-        <v>99.61052553308411</v>
+        <v>105.2306259192212</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>105.2306259192212</v>
       </c>
       <c r="R32" t="n">
-        <v>56.32691617187023</v>
+        <v>105.2306259192212</v>
       </c>
       <c r="S32" t="n">
         <v>105.2306259192212</v>
@@ -29931,13 +29931,13 @@
         <v>105.2306259192212</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23642391799689</v>
+        <v>105.2306259192212</v>
       </c>
       <c r="L34" t="n">
         <v>105.2306259192212</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192212</v>
+        <v>42.23642391799677</v>
       </c>
       <c r="N34" t="n">
         <v>105.2306259192212</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="E35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="F35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="G35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I35" t="n">
         <v>150.58723340858</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
       </c>
       <c r="J37" t="n">
-        <v>42.59173164781779</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.17731033224803</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R37" t="n">
         <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
-        <v>129.9508740133484</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1656893025203</v>
+        <v>129.950874013348</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="E38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="F38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="G38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I38" t="n">
         <v>150.58723340858</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.32691617187023</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I40" t="n">
         <v>135.5873989991865</v>
       </c>
       <c r="J40" t="n">
-        <v>42.59173164781779</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R40" t="n">
         <v>137.300838189878</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T40" t="n">
-        <v>148.1281843455961</v>
+        <v>129.9508740133479</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.1656893025203</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.32691617187025</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S41" t="n">
         <v>132.2158845502344</v>
@@ -30639,7 +30639,7 @@
         <v>132.2158845502344</v>
       </c>
       <c r="J43" t="n">
-        <v>73.88833724563591</v>
+        <v>55.71102691338874</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,19 +30648,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="O43" t="n">
-        <v>132.2158845502344</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.2158845502344</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R43" t="n">
         <v>132.2158845502344</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.32691617187025</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S44" t="n">
         <v>132.2158845502344</v>
@@ -30876,11 +30876,11 @@
         <v>132.2158845502344</v>
       </c>
       <c r="J46" t="n">
+        <v>42.59173164781782</v>
+      </c>
+      <c r="K46" t="n">
         <v>132.2158845502344</v>
       </c>
-      <c r="K46" t="n">
-        <v>73.88833724563578</v>
-      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>31.29660559781854</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019043</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I11" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471194</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K11" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807504</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712609</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048484</v>
+        <v>93.3774860104847</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729037</v>
       </c>
       <c r="O11" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156267</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257815</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374744</v>
       </c>
       <c r="R11" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S11" t="n">
-        <v>12.11814063892093</v>
+        <v>12.11814063892091</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215234</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122876</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017518</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199177</v>
       </c>
       <c r="K12" t="n">
-        <v>45.94570591536198</v>
+        <v>45.94570591536191</v>
       </c>
       <c r="L12" t="n">
-        <v>61.77967165548509</v>
+        <v>61.779671655485</v>
       </c>
       <c r="M12" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309196</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779627</v>
       </c>
       <c r="O12" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811927</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647219</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971489</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953835</v>
       </c>
       <c r="S12" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051485</v>
       </c>
       <c r="T12" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161413</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161777</v>
       </c>
       <c r="J13" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215119</v>
       </c>
       <c r="K13" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L13" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684748</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O13" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079423</v>
       </c>
       <c r="P13" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874493</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R13" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188759</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854933</v>
       </c>
       <c r="T13" t="n">
-        <v>1.019225824805332</v>
+        <v>1.019225824805331</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K14" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N14" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P14" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S14" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K15" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R15" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T15" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K16" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S16" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T16" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H17" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I17" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J17" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K17" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L17" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M17" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N17" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O17" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P17" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R17" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S17" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T17" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I18" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J18" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K18" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L18" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M18" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N18" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O18" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R18" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S18" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T18" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H19" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I19" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J19" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K19" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L19" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M19" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N19" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O19" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P19" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R19" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S19" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T19" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H20" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I20" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J20" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K20" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L20" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M20" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N20" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O20" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P20" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R20" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S20" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T20" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H21" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I21" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J21" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K21" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L21" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M21" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N21" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O21" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R21" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S21" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T21" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H22" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I22" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J22" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K22" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L22" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M22" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N22" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O22" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S22" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T22" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H23" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I23" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J23" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K23" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L23" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M23" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N23" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O23" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P23" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R23" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S23" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T23" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I24" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J24" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K24" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L24" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M24" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N24" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O24" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P24" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R24" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S24" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T24" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H25" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I25" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J25" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K25" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L25" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M25" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N25" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O25" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S25" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T25" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H29" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I29" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K29" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M29" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O29" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P29" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R29" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S29" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T29" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H30" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I30" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J30" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K30" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T30" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K31" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M31" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N31" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S31" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T31" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H32" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I32" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J32" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K32" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L32" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M32" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N32" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O32" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P32" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R32" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S32" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T32" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H33" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I33" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J33" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K33" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L33" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M33" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N33" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O33" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P33" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R33" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S33" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T33" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H34" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I34" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J34" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K34" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L34" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M34" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N34" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O34" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R34" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S34" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T34" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H35" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I35" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J35" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K35" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L35" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M35" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N35" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O35" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P35" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R35" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S35" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T35" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H36" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I36" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J36" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K36" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L36" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M36" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N36" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O36" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R36" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S36" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T36" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H37" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I37" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J37" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K37" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L37" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M37" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N37" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O37" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R37" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S37" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T37" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5317889474019051</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H38" t="n">
-        <v>5.446183557579762</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I38" t="n">
-        <v>20.50179339471197</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J38" t="n">
-        <v>45.13492217455249</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K38" t="n">
-        <v>67.64554831807514</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L38" t="n">
-        <v>83.92028431712622</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M38" t="n">
-        <v>93.37748601048484</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N38" t="n">
-        <v>94.88843135729051</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O38" t="n">
-        <v>89.60045501156281</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P38" t="n">
-        <v>76.47191537257827</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.42722369374752</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R38" t="n">
-        <v>33.40498746723495</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S38" t="n">
-        <v>12.11814063892093</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T38" t="n">
-        <v>2.327906117251841</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0425431157921524</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2845321712443309</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H39" t="n">
-        <v>2.74798175912288</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I39" t="n">
-        <v>9.796392738017532</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J39" t="n">
-        <v>26.88205044199181</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K39" t="n">
-        <v>45.94570591536198</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L39" t="n">
-        <v>61.77967165548509</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M39" t="n">
-        <v>72.09396286309207</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N39" t="n">
-        <v>74.00207553779639</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O39" t="n">
-        <v>67.69744163811937</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P39" t="n">
-        <v>54.33316522647227</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.32028206971494</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R39" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S39" t="n">
-        <v>5.285060286051493</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T39" t="n">
-        <v>1.146864321813772</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0187192217923902</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2385422143161416</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H40" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I40" t="n">
-        <v>7.173614954161788</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J40" t="n">
-        <v>16.86493455215121</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K40" t="n">
-        <v>27.71426817236626</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L40" t="n">
-        <v>35.46472157205618</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M40" t="n">
-        <v>37.39257637684754</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N40" t="n">
-        <v>36.50346448712376</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O40" t="n">
-        <v>33.71685771079428</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85059653874497</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R40" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S40" t="n">
-        <v>4.157140225854939</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T40" t="n">
-        <v>1.019225824805332</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5317889474019047</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H41" t="n">
-        <v>5.446183557579759</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I41" t="n">
-        <v>20.50179339471195</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J41" t="n">
-        <v>45.13492217455246</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K41" t="n">
-        <v>67.6455483180751</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L41" t="n">
-        <v>83.92028431712616</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M41" t="n">
-        <v>93.37748601048477</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N41" t="n">
-        <v>94.88843135729044</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O41" t="n">
-        <v>89.60045501156276</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P41" t="n">
-        <v>76.47191537257821</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.42722369374749</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R41" t="n">
-        <v>33.40498746723493</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S41" t="n">
-        <v>12.11814063892092</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T41" t="n">
-        <v>2.327906117251839</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04254311579215237</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2845321712443307</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H42" t="n">
-        <v>2.747981759122879</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I42" t="n">
-        <v>9.796392738017527</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J42" t="n">
-        <v>26.88205044199179</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K42" t="n">
-        <v>45.94570591536194</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L42" t="n">
-        <v>61.77967165548505</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M42" t="n">
-        <v>72.09396286309202</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N42" t="n">
-        <v>74.00207553779634</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O42" t="n">
-        <v>67.69744163811933</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.33316522647224</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.32028206971491</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R42" t="n">
-        <v>17.66595357953836</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S42" t="n">
-        <v>5.28506028605149</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T42" t="n">
-        <v>1.146864321813771</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2385422143161414</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H43" t="n">
-        <v>2.120857141828968</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I43" t="n">
-        <v>7.173614954161783</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J43" t="n">
-        <v>16.8649345521512</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K43" t="n">
-        <v>27.71426817236625</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L43" t="n">
-        <v>35.46472157205616</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M43" t="n">
-        <v>37.39257637684752</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N43" t="n">
-        <v>36.50346448712374</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O43" t="n">
-        <v>33.71685771079426</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85059653874495</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.97465760059981</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R43" t="n">
-        <v>10.72572538188759</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S43" t="n">
-        <v>4.157140225854937</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T43" t="n">
-        <v>1.019225824805331</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5317889474019047</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H44" t="n">
-        <v>5.446183557579759</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I44" t="n">
-        <v>20.50179339471195</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J44" t="n">
-        <v>45.13492217455246</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K44" t="n">
-        <v>67.6455483180751</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L44" t="n">
-        <v>83.92028431712616</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M44" t="n">
-        <v>93.37748601048477</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N44" t="n">
-        <v>94.88843135729044</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O44" t="n">
-        <v>89.60045501156276</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P44" t="n">
-        <v>76.47191537257821</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.42722369374749</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R44" t="n">
-        <v>33.40498746723493</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S44" t="n">
-        <v>12.11814063892092</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T44" t="n">
-        <v>2.327906117251839</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04254311579215237</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2845321712443307</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H45" t="n">
-        <v>2.747981759122879</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I45" t="n">
-        <v>9.796392738017527</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J45" t="n">
-        <v>26.88205044199179</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K45" t="n">
-        <v>45.94570591536194</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L45" t="n">
-        <v>61.77967165548505</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M45" t="n">
-        <v>72.09396286309202</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N45" t="n">
-        <v>74.00207553779634</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O45" t="n">
-        <v>67.69744163811933</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.33316522647224</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.32028206971491</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R45" t="n">
-        <v>17.66595357953836</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S45" t="n">
-        <v>5.28506028605149</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T45" t="n">
-        <v>1.146864321813771</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2385422143161414</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H46" t="n">
-        <v>2.120857141828968</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I46" t="n">
-        <v>7.173614954161783</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J46" t="n">
-        <v>16.8649345521512</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K46" t="n">
-        <v>27.71426817236625</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L46" t="n">
-        <v>35.46472157205616</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M46" t="n">
-        <v>37.39257637684752</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N46" t="n">
-        <v>36.50346448712374</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O46" t="n">
-        <v>33.71685771079426</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P46" t="n">
-        <v>28.85059653874495</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.97465760059981</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R46" t="n">
-        <v>10.72572538188759</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S46" t="n">
-        <v>4.157140225854937</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T46" t="n">
-        <v>1.019225824805331</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>9.605247316954339</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
         <v>10.00967878293136</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>10.00967878293136</v>
@@ -35343,7 +35343,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.8607244703158</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K11" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L11" t="n">
-        <v>435.3196510695972</v>
+        <v>253.2558305274016</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3382830404447</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N11" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O11" t="n">
-        <v>397.6858938730113</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P11" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L12" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M12" t="n">
-        <v>100.1378701240241</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N12" t="n">
-        <v>590.4320211167076</v>
+        <v>488.0238064985273</v>
       </c>
       <c r="O12" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P12" t="n">
-        <v>359.4805584342473</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.04919017668342</v>
+        <v>60.04919017668341</v>
       </c>
       <c r="K13" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L13" t="n">
         <v>239.728955922072</v>
       </c>
       <c r="M13" t="n">
-        <v>259.218857926199</v>
+        <v>259.2188579261989</v>
       </c>
       <c r="N13" t="n">
         <v>258.7629133314233</v>
@@ -35583,10 +35583,10 @@
         <v>235.8160083188204</v>
       </c>
       <c r="P13" t="n">
-        <v>195.0960473815672</v>
+        <v>195.0960473815671</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225318</v>
+        <v>84.46361149225316</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K14" t="n">
-        <v>310.2115806865426</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L14" t="n">
-        <v>435.3196510695972</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M14" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N14" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6858938730113</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P14" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.61024245675253</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K15" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L15" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M15" t="n">
-        <v>100.1378701240241</v>
+        <v>100.1378701240246</v>
       </c>
       <c r="N15" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O15" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P15" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668343</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L16" t="n">
-        <v>239.7289559220721</v>
+        <v>239.728955922072</v>
       </c>
       <c r="M16" t="n">
         <v>259.218857926199</v>
       </c>
       <c r="N16" t="n">
-        <v>258.7629133314234</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O16" t="n">
         <v>235.8160083188204</v>
@@ -35823,7 +35823,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225319</v>
+        <v>84.46361149225316</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K17" t="n">
-        <v>310.2115806865426</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L17" t="n">
-        <v>435.3196510695972</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M17" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N17" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O17" t="n">
-        <v>397.6858938730113</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P17" t="n">
-        <v>242.7303308724685</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K18" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L18" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M18" t="n">
-        <v>562.0266431764521</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N18" t="n">
-        <v>128.5432480642787</v>
+        <v>128.5432480642791</v>
       </c>
       <c r="O18" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P18" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.65789215685456</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L19" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M19" t="n">
-        <v>156.5779361016978</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N19" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P19" t="n">
-        <v>92.45512555706597</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.8607244703158</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K20" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L20" t="n">
-        <v>435.3196510695972</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M20" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N20" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O20" t="n">
-        <v>397.6858938730113</v>
+        <v>215.6220733308155</v>
       </c>
       <c r="P20" t="n">
-        <v>277.6829449307859</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K21" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L21" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M21" t="n">
-        <v>100.1378701240241</v>
+        <v>100.1378701240237</v>
       </c>
       <c r="N21" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O21" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P21" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.65789215685456</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L22" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M22" t="n">
-        <v>156.5779361016978</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N22" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P22" t="n">
-        <v>92.45512555706597</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.8607244703158</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K23" t="n">
-        <v>310.2115806865426</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L23" t="n">
-        <v>435.3196510695972</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M23" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N23" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O23" t="n">
-        <v>215.6220733308146</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P23" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q23" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.2966869788343</v>
+        <v>57.1527386442634</v>
       </c>
       <c r="M24" t="n">
-        <v>562.0266431764521</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N24" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O24" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P24" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.2959612119019</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.65789215685456</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L25" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M25" t="n">
-        <v>156.5779361016978</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N25" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O25" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P25" t="n">
-        <v>92.45512555706597</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.501646294817</v>
+        <v>123.6888307603362</v>
       </c>
       <c r="K26" t="n">
-        <v>412.8525025110437</v>
+        <v>412.8525025110438</v>
       </c>
       <c r="L26" t="n">
         <v>537.9605728940983</v>
@@ -36607,7 +36607,7 @@
         <v>579.6822407451409</v>
       </c>
       <c r="O26" t="n">
-        <v>403.5140001630322</v>
+        <v>500.3268156975124</v>
       </c>
       <c r="P26" t="n">
         <v>409.5743487688504</v>
@@ -36616,7 +36616,7 @@
         <v>255.4542603531346</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263095</v>
+        <v>46.31400565263098</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>87.74482471785659</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9070835093099</v>
+        <v>431.2966869788342</v>
       </c>
       <c r="M27" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240236</v>
       </c>
       <c r="N27" t="n">
         <v>590.4320211167076</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668341</v>
+        <v>60.04919017668344</v>
       </c>
       <c r="K28" t="n">
-        <v>164.2988139813557</v>
+        <v>164.2988139813558</v>
       </c>
       <c r="L28" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220721</v>
       </c>
       <c r="M28" t="n">
         <v>259.218857926199</v>
@@ -36771,7 +36771,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225319</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>220.5016462948169</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110438</v>
+        <v>412.8525025110437</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940983</v>
       </c>
       <c r="M29" t="n">
-        <v>593.2296868785091</v>
+        <v>593.229686878509</v>
       </c>
       <c r="N29" t="n">
-        <v>482.8694252106608</v>
+        <v>482.8694252106606</v>
       </c>
       <c r="O29" t="n">
-        <v>500.3268156975124</v>
+        <v>500.3268156975123</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5743487688504</v>
+        <v>409.5743487688503</v>
       </c>
       <c r="Q29" t="n">
         <v>255.4542603531345</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L30" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M30" t="n">
-        <v>562.0266431764521</v>
+        <v>100.1378701240242</v>
       </c>
       <c r="N30" t="n">
-        <v>128.5432480642789</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O30" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P30" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.04919017668337</v>
+        <v>60.0491901766834</v>
       </c>
       <c r="K31" t="n">
         <v>164.2988139813557</v>
@@ -36996,7 +36996,7 @@
         <v>239.728955922072</v>
       </c>
       <c r="M31" t="n">
-        <v>259.218857926199</v>
+        <v>259.2188579261989</v>
       </c>
       <c r="N31" t="n">
         <v>258.7629133314233</v>
@@ -37008,7 +37008,7 @@
         <v>195.0960473815671</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.46361149225449</v>
+        <v>84.46361149225315</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.091350389537</v>
+        <v>168.5675402560492</v>
       </c>
       <c r="K32" t="n">
-        <v>415.4422066057638</v>
+        <v>415.4422066057637</v>
       </c>
       <c r="L32" t="n">
-        <v>540.5502769888183</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M32" t="n">
-        <v>595.8193909732292</v>
+        <v>595.819390973229</v>
       </c>
       <c r="N32" t="n">
-        <v>582.2719448398609</v>
+        <v>582.2719448398608</v>
       </c>
       <c r="O32" t="n">
-        <v>502.9165197922325</v>
+        <v>502.9165197922323</v>
       </c>
       <c r="P32" t="n">
-        <v>406.5439524774333</v>
+        <v>412.1640528635703</v>
       </c>
       <c r="Q32" t="n">
-        <v>152.8133385286334</v>
+        <v>258.0439644478545</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.90370974735092</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.7448247178566</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L33" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M33" t="n">
-        <v>562.0266431764521</v>
+        <v>383.5682595233071</v>
       </c>
       <c r="N33" t="n">
-        <v>128.5432480642789</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O33" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P33" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.6855646814263</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>62.63889427140339</v>
       </c>
       <c r="K34" t="n">
-        <v>103.8943160748514</v>
+        <v>166.8885180760757</v>
       </c>
       <c r="L34" t="n">
         <v>242.318660016792</v>
       </c>
       <c r="M34" t="n">
-        <v>261.8085620209189</v>
+        <v>198.8143600196945</v>
       </c>
       <c r="N34" t="n">
         <v>261.3526174261433</v>
@@ -37242,10 +37242,10 @@
         <v>238.4057124135404</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6857514762872</v>
+        <v>197.6857514762871</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697316</v>
+        <v>87.05331558697314</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.8607244703158</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K35" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L35" t="n">
-        <v>435.3196510695972</v>
+        <v>435.3196510695975</v>
       </c>
       <c r="M35" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N35" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O35" t="n">
-        <v>397.6858938730113</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P35" t="n">
-        <v>306.9334269443493</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K36" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M36" t="n">
-        <v>562.0266431764521</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N36" t="n">
-        <v>590.4320211167076</v>
+        <v>128.5432480642796</v>
       </c>
       <c r="O36" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P36" t="n">
-        <v>181.0221747811013</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.65789215685456</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L37" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M37" t="n">
-        <v>156.5779361016978</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N37" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P37" t="n">
-        <v>92.45512555706597</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.8607244703158</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K38" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L38" t="n">
-        <v>435.3196510695972</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M38" t="n">
-        <v>490.588765054008</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N38" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O38" t="n">
-        <v>397.6858938730113</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P38" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q38" t="n">
         <v>152.8133385286333</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.7448247178566</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L39" t="n">
-        <v>431.2966869788343</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M39" t="n">
-        <v>562.0266431764521</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N39" t="n">
-        <v>406.2975929293263</v>
+        <v>128.5432480642796</v>
       </c>
       <c r="O39" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P39" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.6855646814263</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.65789215685456</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L40" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M40" t="n">
-        <v>156.5779361016978</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N40" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O40" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P40" t="n">
-        <v>92.45512555706597</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K41" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L41" t="n">
-        <v>435.3196510695971</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M41" t="n">
         <v>490.5887650540079</v>
       </c>
       <c r="N41" t="n">
-        <v>477.0413189206397</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O41" t="n">
-        <v>397.6858938730112</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P41" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286347</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.74482471785659</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K42" t="n">
-        <v>11.55113649404526</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>431.2966869788342</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M42" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N42" t="n">
-        <v>590.4320211167076</v>
+        <v>406.2975929293268</v>
       </c>
       <c r="O42" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P42" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.29660559781811</v>
+        <v>13.11929526557093</v>
       </c>
       <c r="K43" t="n">
-        <v>61.65789215685454</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L43" t="n">
         <v>137.0880340975708</v>
       </c>
       <c r="M43" t="n">
-        <v>156.5779361016977</v>
+        <v>288.7938206519322</v>
       </c>
       <c r="N43" t="n">
-        <v>156.1219915069221</v>
+        <v>288.3378760571565</v>
       </c>
       <c r="O43" t="n">
-        <v>265.3909710445536</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P43" t="n">
-        <v>92.45512555706595</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.0385742179864</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.860724470316</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K44" t="n">
-        <v>310.2115806865426</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L44" t="n">
-        <v>435.3196510695971</v>
+        <v>435.3196510695984</v>
       </c>
       <c r="M44" t="n">
         <v>490.5887650540079</v>
       </c>
       <c r="N44" t="n">
-        <v>477.0413189206397</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O44" t="n">
-        <v>397.6858938730112</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P44" t="n">
-        <v>306.9334269443492</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.74482471785659</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K45" t="n">
-        <v>11.55113649404526</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>431.2966869788342</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M45" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N45" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O45" t="n">
-        <v>463.8590080867566</v>
+        <v>279.7245798993756</v>
       </c>
       <c r="P45" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>89.62415290241665</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>135.5462294024903</v>
+        <v>193.873776707089</v>
       </c>
       <c r="L46" t="n">
         <v>137.0880340975708</v>
@@ -38184,13 +38184,13 @@
         <v>156.5779361016977</v>
       </c>
       <c r="N46" t="n">
-        <v>156.1219915069221</v>
+        <v>187.4185971047406</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1750864943192</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P46" t="n">
-        <v>92.45512555706595</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q46" t="n">
         <v>114.0385742179864</v>
